--- a/HWDBS_1.xlsx
+++ b/HWDBS_1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Урок 1. Знакомство с базами данных
 Составьте таблицы для хранения сведений об общественном транспорте.
@@ -37,6 +37,93 @@
   </si>
   <si>
     <t>ID_Persona</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>Должности</t>
+  </si>
+  <si>
+    <t>ID_JobTitle</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>ID_transport</t>
+  </si>
+  <si>
+    <t>Госномер</t>
+  </si>
+  <si>
+    <t>Маршруты</t>
+  </si>
+  <si>
+    <t>ID_AutoRoute</t>
+  </si>
+  <si>
+    <t>Номер маршрута</t>
+  </si>
+  <si>
+    <t>Водитель</t>
+  </si>
+  <si>
+    <t>Категория транспорта</t>
+  </si>
+  <si>
+    <t>Транспорт предприятия</t>
+  </si>
+  <si>
+    <t>Категории транспорта</t>
+  </si>
+  <si>
+    <t>ID_TransportCategories</t>
+  </si>
+  <si>
+    <t>Описание категории</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Микроавтобус</t>
+  </si>
+  <si>
+    <t>Автобус</t>
+  </si>
+  <si>
+    <t>AA 2222 BB</t>
+  </si>
+  <si>
+    <t>AA 3333 BB</t>
+  </si>
+  <si>
+    <t>AA 4444 BB</t>
+  </si>
+  <si>
+    <t>AA 1111 BB</t>
+  </si>
+  <si>
+    <t>Кондуктор</t>
+  </si>
+  <si>
+    <t>Сотрудники автопарка</t>
+  </si>
+  <si>
+    <t>ID_Worker</t>
   </si>
 </sst>
 </file>
@@ -61,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -106,11 +193,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -120,6 +222,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,15 +532,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -445,10 +568,295 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>4</v>
+      </c>
+      <c r="B34" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>2</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
